--- a/data/word-embeddings/three-clusters.xlsx
+++ b/data/word-embeddings/three-clusters.xlsx
@@ -144,9 +144,6 @@
     <t xml:space="preserve">Referendum </t>
   </si>
   <si>
-    <t xml:space="preserve">Plebecite </t>
-  </si>
-  <si>
     <t xml:space="preserve">Runoff </t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t xml:space="preserve"> hippopotamus</t>
+  </si>
+  <si>
+    <t>plebiscite</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
